--- a/天尊系列引脚.xlsx
+++ b/天尊系列引脚.xlsx
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
